--- a/02_data/parametro_antiguedad.xlsx
+++ b/02_data/parametro_antiguedad.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajo\111_Ale\02_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajo\111_Ale\not_opticliente\02_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A1F8E8-8154-4D7F-A530-547E9C05395F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991D96E2-1606-456D-BD7F-1F7D9A13971F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5748" yWindow="2808" windowWidth="11952" windowHeight="8964" tabRatio="830" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="830" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prioridades" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="planificacion" sheetId="4" state="hidden" r:id="rId2"/>
-    <sheet name="parametro_antiguedad" sheetId="15" r:id="rId3"/>
-    <sheet name="rango_mes_tipo" sheetId="16" r:id="rId4"/>
+    <sheet name="rango_mes_tipo" sheetId="16" r:id="rId3"/>
+    <sheet name="parametro_antiguedad" sheetId="15" r:id="rId4"/>
     <sheet name="cierreventas" sheetId="7" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
   <si>
     <t xml:space="preserve"> prioridad</t>
   </si>
@@ -306,9 +306,6 @@
     <t>stock_can_pro</t>
   </si>
   <si>
-    <t>id_plantatipo</t>
-  </si>
-  <si>
     <t>mes_planificado</t>
   </si>
   <si>
@@ -326,6 +323,18 @@
   <si>
     <t>rango</t>
   </si>
+  <si>
+    <t>producto</t>
+  </si>
+  <si>
+    <t>planta1</t>
+  </si>
+  <si>
+    <t>EUGL CC</t>
+  </si>
+  <si>
+    <t>nombre_planta</t>
+  </si>
 </sst>
 </file>
 
@@ -335,11 +344,25 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -681,183 +704,168 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -871,24 +879,41 @@
     <xf numFmtId="1" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -7546,11 +7571,91 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E73373-303F-4E1A-99B4-89F5D60612E0}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="76"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D02A355-BAB3-40F2-8ABF-8928B8ADA7D7}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7564,19 +7669,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>83</v>
-      </c>
       <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>80</v>
-      </c>
-      <c r="E1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -7757,70 +7862,6 @@
       </c>
       <c r="E11">
         <v>0.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E73373-303F-4E1A-99B4-89F5D60612E0}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
